--- a/reports/For The Day (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Day (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>department</t>
   </si>
@@ -58,9 +58,6 @@
     <t>D3000</t>
   </si>
   <si>
-    <t>D4053</t>
-  </si>
-  <si>
     <t>D4054</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
   </si>
   <si>
     <t>D6720</t>
-  </si>
-  <si>
-    <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
@@ -505,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>5781.51</v>
+        <v>3453.94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -544,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>1781.06</v>
+        <v>1730.03</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -552,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>920.96</v>
+        <v>2009.27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -560,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>589.84</v>
+        <v>745.48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -568,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>1981.31</v>
+        <v>1861.12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -576,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>720.78</v>
+        <v>733.74</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -584,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>3062.21</v>
+        <v>3086.73</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -592,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>1031.45</v>
+        <v>857.36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -600,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>2593.53</v>
+        <v>3738.90</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -608,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>361.16</v>
+        <v>210.45</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -616,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>924.12</v>
+        <v>763.89</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -624,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>119.96</v>
+        <v>956.61</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -632,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>861.45</v>
+        <v>584.53</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -640,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>541.05</v>
+        <v>1553.26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -648,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>1553.26</v>
+        <v>771.12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -656,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>573.90</v>
+        <v>56.34</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -664,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>144.76</v>
+        <v>446.93</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -672,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>128.40</v>
+        <v>365.03</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -680,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>444.83</v>
+        <v>1303.29</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -688,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>827.28</v>
+        <v>338.27</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -696,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>268.99</v>
+        <v>195.88</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -704,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>195.88</v>
+        <v>578.51</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -712,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>578.51</v>
+        <v>1618.34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -720,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>1355.69</v>
+        <v>588.66</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -728,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>621.14</v>
+        <v>1460.01</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -736,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>1428.13</v>
+        <v>354.62</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -744,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>354.62</v>
+        <v>380.92</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -752,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>452.92</v>
+        <v>170.53</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -760,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>79.90</v>
+        <v>621.14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -768,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>181.85</v>
+        <v>1007.62</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -776,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>621.80</v>
+        <v>774.20</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -784,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>1196.85</v>
+        <v>159.51</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -792,7 +786,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>548.51</v>
+        <v>224.07</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -800,7 +794,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>123.11</v>
+        <v>535.52</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -808,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>224.07</v>
+        <v>1120.38</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -816,7 +810,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>591.71</v>
+        <v>863.45</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -824,7 +818,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>1120.38</v>
+        <v>180.22</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -832,23 +826,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>755.76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
-        <v>180.22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>172.19</v>
+        <v>321.34</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Day (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>department</t>
   </si>
@@ -52,46 +52,34 @@
     <t>D2000</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D4055</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D4034</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D6212</t>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6030</t>
   </si>
   <si>
     <t>D6215</t>
@@ -100,16 +88,16 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6720</t>
+    <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6750</t>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
@@ -118,12 +106,12 @@
     <t>D6790</t>
   </si>
   <si>
-    <t>D7000</t>
-  </si>
-  <si>
     <t>D7010</t>
   </si>
   <si>
+    <t>D8010</t>
+  </si>
+  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -137,6 +125,9 @@
   </si>
   <si>
     <t>D8060</t>
+  </si>
+  <si>
+    <t>D9007</t>
   </si>
 </sst>
 </file>
@@ -499,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>290.04</v>
+        <v>897.27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>3453.94</v>
+        <v>4066.22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>1730.03</v>
+        <v>1214.00</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -546,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>2009.27</v>
+        <v>2132.94</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -554,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>745.48</v>
+        <v>413.78</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -562,7 +553,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>1861.12</v>
+        <v>1322.29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -570,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>733.74</v>
+        <v>765.48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -578,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>3086.73</v>
+        <v>2226.68</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -586,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>857.36</v>
+        <v>1441.35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -594,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>3738.90</v>
+        <v>1160.73</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -602,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>210.45</v>
+        <v>1840.22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -610,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>763.89</v>
+        <v>295.19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -618,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>956.61</v>
+        <v>153.38</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -626,7 +617,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>584.53</v>
+        <v>533.53</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -634,7 +625,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>1553.26</v>
+        <v>154.76</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -642,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>771.12</v>
+        <v>928.53</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -650,7 +641,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>56.34</v>
+        <v>690.75</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -658,7 +649,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>446.93</v>
+        <v>1218.80</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -666,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>365.03</v>
+        <v>350.86</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -674,7 +665,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1303.29</v>
+        <v>600.06</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -682,7 +673,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>338.27</v>
+        <v>263.36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -690,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>195.88</v>
+        <v>208.58</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -698,7 +689,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>578.51</v>
+        <v>514.03</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -706,7 +697,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>1618.34</v>
+        <v>423.90</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -714,7 +705,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>588.66</v>
+        <v>715.90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -722,7 +713,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>1460.01</v>
+        <v>403.61</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -730,7 +721,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>354.62</v>
+        <v>201.31</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -738,7 +729,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>380.92</v>
+        <v>331.53</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -746,7 +737,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>170.53</v>
+        <v>302.20</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -754,7 +745,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>621.14</v>
+        <v>931.04</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -762,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>1007.62</v>
+        <v>900.64</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -770,7 +761,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>774.20</v>
+        <v>769.23</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -778,7 +769,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>159.51</v>
+        <v>364.07</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -786,7 +777,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>224.07</v>
+        <v>417.42</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -794,7 +785,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>535.52</v>
+        <v>794.38</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -802,31 +793,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>1120.38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2">
-        <v>863.45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2">
-        <v>180.22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2">
-        <v>321.34</v>
+        <v>594.76</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Day (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>department</t>
   </si>
@@ -52,34 +52,46 @@
     <t>D2000</t>
   </si>
   <si>
+    <t>D2200</t>
+  </si>
+  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>D4034</t>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>D4055</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>D6030</t>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>D5810</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D6212</t>
   </si>
   <si>
     <t>D6215</t>
@@ -88,16 +100,16 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6721</t>
+    <t>D6710</t>
+  </si>
+  <si>
+    <t>D6720</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6740</t>
-  </si>
-  <si>
-    <t>D6760</t>
+    <t>D6750</t>
   </si>
   <si>
     <t>D6780</t>
@@ -106,12 +118,12 @@
     <t>D6790</t>
   </si>
   <si>
+    <t>D7000</t>
+  </si>
+  <si>
     <t>D7010</t>
   </si>
   <si>
-    <t>D8010</t>
-  </si>
-  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -125,9 +137,6 @@
   </si>
   <si>
     <t>D8060</t>
-  </si>
-  <si>
-    <t>D9007</t>
   </si>
 </sst>
 </file>
@@ -490,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>897.27</v>
+        <v>290.04</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -521,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>4066.22</v>
+        <v>3453.94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -529,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>1214.00</v>
+        <v>1730.03</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -537,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>2132.94</v>
+        <v>2009.27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -545,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>413.78</v>
+        <v>745.48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -553,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>1322.29</v>
+        <v>1861.12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -561,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>765.48</v>
+        <v>733.74</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -569,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>2226.68</v>
+        <v>3086.73</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -577,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>1441.35</v>
+        <v>857.36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -585,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>1160.73</v>
+        <v>3738.90</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -593,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1840.22</v>
+        <v>210.45</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -601,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>295.19</v>
+        <v>763.89</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -609,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>153.38</v>
+        <v>956.61</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -617,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>533.53</v>
+        <v>584.53</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -625,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>154.76</v>
+        <v>1553.26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -633,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>928.53</v>
+        <v>771.12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -641,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>690.75</v>
+        <v>56.34</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -649,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>1218.80</v>
+        <v>446.93</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -657,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>350.86</v>
+        <v>365.03</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -665,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>600.06</v>
+        <v>1303.29</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -673,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>263.36</v>
+        <v>338.27</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -681,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>208.58</v>
+        <v>195.88</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -689,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>514.03</v>
+        <v>578.51</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -697,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>423.90</v>
+        <v>1618.34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -705,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>715.90</v>
+        <v>588.66</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -713,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>403.61</v>
+        <v>1460.01</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -721,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>201.31</v>
+        <v>354.62</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -729,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>331.53</v>
+        <v>380.92</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -737,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>302.20</v>
+        <v>170.53</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -745,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>931.04</v>
+        <v>621.14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -753,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>900.64</v>
+        <v>1007.62</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -761,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>769.23</v>
+        <v>774.20</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -769,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>364.07</v>
+        <v>159.51</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -777,7 +786,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>417.42</v>
+        <v>224.07</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -785,7 +794,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>794.38</v>
+        <v>535.52</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -793,7 +802,31 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>594.76</v>
+        <v>1120.38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>863.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>180.22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>321.34</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Day (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>department</t>
   </si>
@@ -73,6 +73,9 @@
     <t>D5202</t>
   </si>
   <si>
+    <t>D5203</t>
+  </si>
+  <si>
     <t>D5206</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
   </si>
   <si>
     <t>D6780</t>
+  </si>
+  <si>
+    <t>D6781</t>
   </si>
   <si>
     <t>D6790</t>
@@ -499,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>3453.94</v>
+        <v>3083.99</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>1730.03</v>
+        <v>2145.10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -546,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>2009.27</v>
+        <v>1882.37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -554,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>745.48</v>
+        <v>639.41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -562,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>1861.12</v>
+        <v>2348.20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -570,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>733.74</v>
+        <v>992.85</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -578,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>3086.73</v>
+        <v>3548.10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -586,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>857.36</v>
+        <v>1018.31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -594,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>3738.90</v>
+        <v>1396.48</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -602,7 +608,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>210.45</v>
+        <v>217.10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -610,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>763.89</v>
+        <v>822.41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -618,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>956.61</v>
+        <v>800.70</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -626,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>584.53</v>
+        <v>858.40</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -634,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>1553.26</v>
+        <v>1770.23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -642,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>771.12</v>
+        <v>824.32</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -650,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>56.34</v>
+        <v>323.59</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -658,7 +664,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>446.93</v>
+        <v>161.70</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -666,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>365.03</v>
+        <v>732.21</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -674,7 +680,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1303.29</v>
+        <v>346.90</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -682,7 +688,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>338.27</v>
+        <v>2206.70</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -690,7 +696,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>195.88</v>
+        <v>248.43</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -698,7 +704,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>578.51</v>
+        <v>195.88</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -706,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>1618.34</v>
+        <v>578.51</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -714,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>588.66</v>
+        <v>1660.49</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -722,7 +728,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>1460.01</v>
+        <v>741.29</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -730,7 +736,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>354.62</v>
+        <v>1464.26</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -738,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>380.92</v>
+        <v>354.62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -746,7 +752,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>170.53</v>
+        <v>380.92</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -754,7 +760,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>621.14</v>
+        <v>187.11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -762,7 +768,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>1007.62</v>
+        <v>567.06</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -770,7 +776,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>774.20</v>
+        <v>1063.09</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -778,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>159.51</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -786,7 +792,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>224.07</v>
+        <v>604.19</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -794,7 +800,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>535.52</v>
+        <v>163.19</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -802,7 +808,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>1120.38</v>
+        <v>359.93</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -810,7 +816,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>863.45</v>
+        <v>400.43</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -818,7 +824,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>180.22</v>
+        <v>1120.38</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -826,7 +832,23 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>321.34</v>
+        <v>713.79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>180.22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>172.19</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Day (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>department</t>
   </si>
@@ -52,49 +52,37 @@
     <t>D2000</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D4055</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D4034</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D5203</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D5810</t>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D5112</t>
   </si>
   <si>
     <t>D5820</t>
   </si>
   <si>
-    <t>D6212</t>
+    <t>D6030</t>
   </si>
   <si>
     <t>D6215</t>
@@ -103,33 +91,30 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6720</t>
+    <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6750</t>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
   </si>
   <si>
-    <t>D6781</t>
-  </si>
-  <si>
     <t>D6790</t>
   </si>
   <si>
-    <t>D7000</t>
-  </si>
-  <si>
     <t>D7010</t>
   </si>
   <si>
+    <t>D8010</t>
+  </si>
+  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -143,6 +128,9 @@
   </si>
   <si>
     <t>D8060</t>
+  </si>
+  <si>
+    <t>D9007</t>
   </si>
 </sst>
 </file>
@@ -505,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>290.04</v>
+        <v>897.27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -536,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>3083.99</v>
+        <v>4124.27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -544,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>2145.10</v>
+        <v>1480.14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -552,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1882.37</v>
+        <v>2096.25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -560,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>639.41</v>
+        <v>203.61</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -568,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>2348.20</v>
+        <v>1127.60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -576,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>992.85</v>
+        <v>469.66</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -584,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>3548.10</v>
+        <v>2357.00</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -592,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>1018.31</v>
+        <v>1582.71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -600,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>1396.48</v>
+        <v>1985.71</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -608,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>217.10</v>
+        <v>1758.32</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -616,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>822.41</v>
+        <v>257.00</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -624,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>800.70</v>
+        <v>152.81</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -632,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>858.40</v>
+        <v>800.35</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -640,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>1770.23</v>
+        <v>143.16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -648,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>824.32</v>
+        <v>928.53</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -656,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>323.59</v>
+        <v>700.60</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -664,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>161.70</v>
+        <v>1248.02</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -672,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>732.21</v>
+        <v>284.92</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -680,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>346.90</v>
+        <v>324.12</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -688,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>2206.70</v>
+        <v>472.64</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -696,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>248.43</v>
+        <v>600.34</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -704,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>195.88</v>
+        <v>208.58</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -712,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>578.51</v>
+        <v>213.50</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -720,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>1660.49</v>
+        <v>170.33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -728,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>741.29</v>
+        <v>868.29</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -736,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>1464.26</v>
+        <v>606.38</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -744,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>354.62</v>
+        <v>314.74</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -752,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>380.92</v>
+        <v>299.30</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -760,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>187.11</v>
+        <v>302.20</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -768,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>567.06</v>
+        <v>931.04</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -776,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>1063.09</v>
+        <v>762.61</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -784,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>108.00</v>
+        <v>769.23</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -792,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>604.19</v>
+        <v>515.08</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -800,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>163.19</v>
+        <v>372.52</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -808,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>359.93</v>
+        <v>804.03</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -816,39 +804,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>400.43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1120.38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2">
-        <v>713.79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
-        <v>180.22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>172.19</v>
+        <v>226.48</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Day (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>department</t>
   </si>
@@ -22,121 +22,109 @@
     <t>total</t>
   </si>
   <si>
+    <t>D8030</t>
+  </si>
+  <si>
     <t>D1030</t>
   </si>
   <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
     <t>D1100</t>
   </si>
   <si>
-    <t>D5203</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>D2200</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>D8020</t>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D8060</t>
   </si>
   <si>
     <t>D1000</t>
   </si>
   <si>
-    <t>D4054</t>
+    <t>D4032</t>
   </si>
   <si>
     <t>D6700</t>
   </si>
   <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>D1010</t>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D1020</t>
   </si>
   <si>
     <t>D1060</t>
   </si>
   <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>D7000</t>
-  </si>
-  <si>
-    <t>D8030</t>
-  </si>
-  <si>
-    <t>D8060</t>
+    <t>D1070</t>
   </si>
   <si>
     <t>D5820</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D8040</t>
   </si>
 </sst>
 </file>
@@ -499,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>2185.09</v>
+        <v>769.23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>932.47</v>
+        <v>3215.93</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>239.54</v>
+        <v>316.28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -546,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>195.88</v>
+        <v>159.00</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -554,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>370.29</v>
+        <v>1220.72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -562,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>985.72</v>
+        <v>614.08</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -570,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>630.77</v>
+        <v>632.95</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -578,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>285.36</v>
+        <v>2483.91</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -586,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>1007.53</v>
+        <v>140.48</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -594,7 +582,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>601.03</v>
+        <v>931.04</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -602,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>290.04</v>
+        <v>748.44</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -610,7 +598,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>1333.94</v>
+        <v>476.19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -618,7 +606,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1450.87</v>
+        <v>1606.53</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -626,7 +614,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>380.92</v>
+        <v>928.53</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -634,7 +622,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>572.98</v>
+        <v>377.86</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -642,7 +630,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>438.56</v>
+        <v>607.33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -650,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>3947.78</v>
+        <v>336.18</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -658,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>579.20</v>
+        <v>3904.93</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -666,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>3484.16</v>
+        <v>1272.79</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -674,7 +662,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>998.76</v>
+        <v>203.72</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -682,7 +670,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>156.45</v>
+        <v>480.29</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -690,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>354.62</v>
+        <v>2586.03</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -698,7 +686,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>579.38</v>
+        <v>852.15</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -706,7 +694,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>126.38</v>
+        <v>313.37</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -714,7 +702,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>1120.38</v>
+        <v>208.58</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -722,7 +710,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>172.19</v>
+        <v>829.66</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -730,7 +718,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>578.51</v>
+        <v>897.27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -738,7 +726,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>2021.05</v>
+        <v>396.63</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -746,7 +734,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>180.22</v>
+        <v>208.58</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -754,7 +742,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>947.89</v>
+        <v>170.33</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -762,7 +750,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>965.85</v>
+        <v>302.20</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -770,7 +758,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>183.15</v>
+        <v>1278.12</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -778,7 +766,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>345.39</v>
+        <v>530.37</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -786,7 +774,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>2027.19</v>
+        <v>701.53</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -794,39 +782,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>2402.45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1713.16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2">
-        <v>679.28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2294.73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2">
-        <v>882.75</v>
+        <v>46.50</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Day (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>department</t>
   </si>
@@ -22,109 +22,121 @@
     <t>total</t>
   </si>
   <si>
+    <t>D2200</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D5810</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6720</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D5205</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>D6710</t>
+  </si>
+  <si>
+    <t>D6750</t>
+  </si>
+  <si>
     <t>D8030</t>
   </si>
   <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D6030</t>
-  </si>
-  <si>
-    <t>D6740</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D4034</t>
-  </si>
-  <si>
-    <t>D8010</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D3000</t>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1070</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>D6760</t>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>D5208</t>
   </si>
   <si>
     <t>D8040</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5820</t>
   </si>
 </sst>
 </file>
@@ -487,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>769.23</v>
+        <v>151.10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -518,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>3215.93</v>
+        <v>1220.59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -526,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>316.28</v>
+        <v>355.51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -534,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>159.00</v>
+        <v>270.79</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -542,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>1220.72</v>
+        <v>1695.01</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -550,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>614.08</v>
+        <v>543.50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -558,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>632.95</v>
+        <v>380.40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -566,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>2483.91</v>
+        <v>578.51</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -574,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>140.48</v>
+        <v>1706.64</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -582,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>931.04</v>
+        <v>225.28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -590,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>748.44</v>
+        <v>1174.94</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -598,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>476.19</v>
+        <v>1037.25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -606,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1606.53</v>
+        <v>195.88</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -614,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>928.53</v>
+        <v>6942.50</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -622,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>377.86</v>
+        <v>497.45</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -630,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>607.33</v>
+        <v>170.78</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -638,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>336.18</v>
+        <v>417.25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -646,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>3904.93</v>
+        <v>290.04</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -654,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>1272.79</v>
+        <v>770.98</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -662,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>203.72</v>
+        <v>347.05</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -670,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>480.29</v>
+        <v>1287.88</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -678,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>2586.03</v>
+        <v>380.92</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -686,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>852.15</v>
+        <v>777.01</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -694,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>313.37</v>
+        <v>4681.33</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -702,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>208.58</v>
+        <v>869.97</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -710,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>829.66</v>
+        <v>4642.40</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -718,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>897.27</v>
+        <v>1007.41</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -726,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>396.63</v>
+        <v>207.30</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -734,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>208.58</v>
+        <v>216.70</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -742,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>170.33</v>
+        <v>354.62</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -750,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>302.20</v>
+        <v>683.73</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -758,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>1278.12</v>
+        <v>1142.01</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -766,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>530.37</v>
+        <v>322.67</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -774,7 +786,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>701.53</v>
+        <v>1991.28</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -782,7 +794,39 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>46.50</v>
+        <v>1643.37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1553.26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>742.29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2400.48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>840.53</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For The Day (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>department</t>
   </si>
@@ -22,49 +22,97 @@
     <t>total</t>
   </si>
   <si>
-    <t>D2200</t>
+    <t>D8030</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6781</t>
+  </si>
+  <si>
+    <t>D1100</t>
   </si>
   <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
   </si>
   <si>
-    <t>D8020</t>
+    <t>D8040</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D5111</t>
   </si>
   <si>
     <t>D6215</t>
   </si>
   <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
     <t>D8050</t>
   </si>
   <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D5202</t>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D6700</t>
   </si>
   <si>
     <t>D6730</t>
@@ -73,70 +121,16 @@
     <t>D7010</t>
   </si>
   <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6720</t>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
   </si>
   <si>
     <t>D6790</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>D8030</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D8040</t>
   </si>
 </sst>
 </file>
@@ -499,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>151.10</v>
+        <v>769.23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>1220.59</v>
+        <v>1159.47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>355.51</v>
+        <v>564.89</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -546,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>270.79</v>
+        <v>735.23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -554,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>1695.01</v>
+        <v>205.51</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -562,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>543.50</v>
+        <v>5675.53</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -570,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>380.40</v>
+        <v>150.48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -578,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>578.51</v>
+        <v>931.04</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -586,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>1706.64</v>
+        <v>774.84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -594,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>225.28</v>
+        <v>1537.36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -602,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1174.94</v>
+        <v>471.69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -610,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>1037.25</v>
+        <v>169.69</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -618,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>195.88</v>
+        <v>1276.68</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -626,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>6942.50</v>
+        <v>483.96</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -634,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>497.45</v>
+        <v>667.64</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -642,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>170.78</v>
+        <v>107.07</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -650,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>417.25</v>
+        <v>769.96</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -658,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>290.04</v>
+        <v>2364.05</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -666,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>770.98</v>
+        <v>928.53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -674,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>347.05</v>
+        <v>295.32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -682,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1287.88</v>
+        <v>758.81</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -690,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>380.92</v>
+        <v>127.11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -698,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>777.01</v>
+        <v>498.17</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -706,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>4681.33</v>
+        <v>3780.82</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -714,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>869.97</v>
+        <v>2430.35</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -722,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>4642.40</v>
+        <v>425.86</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -730,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>1007.41</v>
+        <v>405.87</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -738,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>207.30</v>
+        <v>671.77</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -746,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>216.70</v>
+        <v>897.27</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -754,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>354.62</v>
+        <v>941.87</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -762,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>683.73</v>
+        <v>208.58</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -770,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>1142.01</v>
+        <v>336.83</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -778,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>322.67</v>
+        <v>302.20</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -786,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>1991.28</v>
+        <v>4436.79</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -794,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>1643.37</v>
+        <v>2062.06</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -802,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>1553.26</v>
+        <v>899.19</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -810,23 +804,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>742.29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2400.48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2">
-        <v>840.53</v>
+        <v>633.68</v>
       </c>
     </row>
   </sheetData>
